--- a/table_4_350.xlsx
+++ b/table_4_350.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulbeyaz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\E-Source\014-Bilimsel Calismalar\YAYINLAR\2025\05-Mert_yl_Tez_makale\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,19 +26,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Ra</t>
+    <t>Vc (rpm)</t>
   </si>
   <si>
-    <t>Tm</t>
+    <t>ap (mm)</t>
   </si>
   <si>
-    <t>Vc</t>
+    <t>Vf (mm/rev)</t>
   </si>
   <si>
-    <t>ap</t>
+    <t>Ra* (unitless)</t>
   </si>
   <si>
-    <t>Vf</t>
+    <t>Tm* (unitless)</t>
   </si>
 </sst>
 </file>
@@ -63,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,12 +71,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,26 +370,26 @@
   <dimension ref="A1:E351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
